--- a/Resultados/Cuadros y Graficos.xlsx
+++ b/Resultados/Cuadros y Graficos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015"/>
+    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>Tamaño del establecimiento</t>
   </si>
@@ -139,13 +139,82 @@
   </si>
   <si>
     <t>Están los datos de las coocurrencias también, pero son muchisimas dimensiones (y algunas aparecen solo en algunos países) . No se me ocurre una forma de visualizarlo todo junto por ahora</t>
+  </si>
+  <si>
+    <t>11-1021</t>
+  </si>
+  <si>
+    <t>General and Operations Managers</t>
+  </si>
+  <si>
+    <t>Senior government officials</t>
+  </si>
+  <si>
+    <t>Senior officials of special-interest organizations</t>
+  </si>
+  <si>
+    <t>Managing directors and chief executives</t>
+  </si>
+  <si>
+    <t>Aged care services managers</t>
+  </si>
+  <si>
+    <t>Financial and insurance services branch managers</t>
+  </si>
+  <si>
+    <t>Retail and wholesale trade managers</t>
+  </si>
+  <si>
+    <t>Shopkeepers</t>
+  </si>
+  <si>
+    <t>ISCO.Digit 1.</t>
+  </si>
+  <si>
+    <t>SOC: Descripción</t>
+  </si>
+  <si>
+    <t>Soc: Código</t>
+  </si>
+  <si>
+    <t>ISCO: Código</t>
+  </si>
+  <si>
+    <t>ISCO: Descripción</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Probabilidad</t>
+  </si>
+  <si>
+    <t>"1/7"</t>
+  </si>
+  <si>
+    <t>Cruces Educación Calificación</t>
+  </si>
+  <si>
+    <t>Ejemplo CrossWalk de USA a EUROPA</t>
+  </si>
+  <si>
+    <t>ISCO.Dígito 1.</t>
+  </si>
+  <si>
+    <t>SOC: Código</t>
+  </si>
+  <si>
+    <t>ISCO: Códigos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +266,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +286,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -436,12 +523,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -461,26 +752,160 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="2" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="4" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="2" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="2" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,58 +914,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -550,29 +926,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -768,6 +1124,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>468291</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>677791</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>72059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="4 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11929100" y="0"/>
+          <a:ext cx="8614092" cy="5617612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -803,6 +1197,130 @@
         <a:xfrm>
           <a:off x="0" y="578477"/>
           <a:ext cx="10714594" cy="5495327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>40595</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447223</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>20298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40595" y="192826"/>
+          <a:ext cx="7257016" cy="4759752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>517584</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>448602</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8129126" y="192825"/>
+          <a:ext cx="9826024" cy="5038102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>665466</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>118460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="184851"/>
+          <a:ext cx="8306005" cy="5479162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1101,24 +1619,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -1130,9 +1654,30 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="G2" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1147,9 +1692,30 @@
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="G3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="38">
+        <v>1112</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="38">
+        <v>1</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1162,9 +1728,30 @@
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="G4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="38">
+        <v>1114</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="38">
+        <v>1</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1176,6 +1763,119 @@
       </c>
       <c r="E5" s="7" t="s">
         <v>15</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="38">
+        <v>1120</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="38">
+        <v>1</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="38">
+        <v>1343</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="38">
+        <v>1</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G7" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="38">
+        <v>1346</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="38">
+        <v>1</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G8" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="38">
+        <v>1420</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="38">
+        <v>1</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G9" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="38">
+        <v>5221</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="38">
+        <v>5</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1897,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1218,7 +1918,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1249,7 +1949,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1263,7 +1963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1283,7 +1985,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1310,19 +2012,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1330,333 +2033,343 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="I2" s="30" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="I2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="1:12" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>0.08</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>0.24</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="18">
         <v>0.03</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <f>E4+D4+C4</f>
         <v>0.35000000000000003</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="16">
         <v>3.309244460184263E-2</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="17">
         <v>7.8056258889451932E-2</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="18">
         <v>1.7466882593516225E-2</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="10">
         <f>K4+J4+I4</f>
         <v>0.12861558608481077</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="20">
         <v>0.25</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="21">
         <v>0.1</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <f t="shared" ref="F5:F6" si="0">E5+D5+C5</f>
         <v>0.42</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="19">
         <v>4.0386184833768608E-2</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="20">
         <v>0.3580801249050331</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="21">
         <v>0.1894891980412188</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="11">
         <f t="shared" ref="L5:L6" si="1">K5+J5+I5</f>
         <v>0.58795550778002059</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>0.01</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="23">
         <v>0.06</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="24">
         <v>0.18</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="22">
         <v>4.5489658927627156E-3</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="23">
         <v>4.8062142245866579E-2</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="24">
         <v>0.23081779799653931</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="12">
         <f t="shared" si="1"/>
         <v>0.28342890613516863</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="26">
         <f>C6+C5+C4</f>
         <v>0.16</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="26">
         <f t="shared" ref="D7:E7" si="2">D6+D5+D4</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="29">
         <f t="shared" si="2"/>
         <v>0.31000000000000005</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="33">
         <f>100%</f>
         <v>1</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="26">
         <f>I6+I5+I4</f>
         <v>7.8027595328373944E-2</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="26">
         <f t="shared" ref="J7" si="3">J6+J5+J4</f>
         <v>0.48419852604035163</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="29">
         <f t="shared" ref="K7" si="4">K6+K5+K4</f>
         <v>0.43777387863127437</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="33">
         <f>100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
     </row>
     <row r="10" spans="1:12" ht="24.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="16">
         <v>0.03</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>0.05</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <v>0.01</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <f>E11+D11+C11</f>
         <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="19">
         <v>0.08</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="21">
         <v>0.18</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="11">
         <f t="shared" ref="F12:F13" si="5">E12+D12+C12</f>
         <v>0.54999999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>0.01</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="23">
         <v>0.06</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="12">
         <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="26">
         <f>C13+C12+C11</f>
         <v>0.12</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="27">
         <f t="shared" ref="D14:E14" si="6">D13+D12+D11</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="28">
         <f t="shared" si="6"/>
         <v>0.48</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="33">
         <f>100%</f>
         <v>1</v>
       </c>
@@ -1666,8 +2379,175 @@
         <v>29</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="43">
+        <v>1112</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="44">
+        <v>1</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="45">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="61"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="46">
+        <v>1114</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="41">
+        <v>1</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="47">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="48">
+        <v>1120</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="40">
+        <v>1</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="49">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="46">
+        <v>1343</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="41">
+        <v>1</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="47">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="61"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="48">
+        <v>1346</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="40">
+        <v>1</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="49">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="46">
+        <v>1420</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="41">
+        <v>1</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="47">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="25.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="62"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="50">
+        <v>5221</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="51">
+        <v>5</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="52">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="A21:A27"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A11:A13"/>

--- a/Resultados/Cuadros y Graficos.xlsx
+++ b/Resultados/Cuadros y Graficos.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015" activeTab="8"/>
+    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Gráfico 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Cuadro 1" sheetId="5" r:id="rId3"/>
-    <sheet name="Gráfico 2" sheetId="3" r:id="rId4"/>
-    <sheet name="Gráfico 3" sheetId="4" r:id="rId5"/>
-    <sheet name="Grafico 4" sheetId="7" r:id="rId6"/>
-    <sheet name="Graf 5" sheetId="9" r:id="rId7"/>
-    <sheet name="Graf 6 y más" sheetId="8" r:id="rId8"/>
-    <sheet name="Anexo" sheetId="6" r:id="rId9"/>
+    <sheet name="Argentina" sheetId="10" r:id="rId2"/>
+    <sheet name="Gráfico 1" sheetId="2" r:id="rId3"/>
+    <sheet name="Cuadro 1" sheetId="5" r:id="rId4"/>
+    <sheet name="Gráfico 2" sheetId="3" r:id="rId5"/>
+    <sheet name="Gráfico 3" sheetId="4" r:id="rId6"/>
+    <sheet name="Grafico 4" sheetId="7" r:id="rId7"/>
+    <sheet name="Graf 5" sheetId="9" r:id="rId8"/>
+    <sheet name="Graf 6 y más" sheetId="8" r:id="rId9"/>
+    <sheet name="Anexo" sheetId="6" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk13179517" localSheetId="0">'Esquema 1'!$A$1</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>Tamaño del establecimiento</t>
   </si>
@@ -117,12 +118,6 @@
     <t>No creo que tenga sentido mostrar todos estos cruces para cada uno de los países, hay que encontrarle la vuelta</t>
   </si>
   <si>
-    <t xml:space="preserve">Podría ser algo así para todos los países. </t>
-  </si>
-  <si>
-    <t>No me termina de convencer igual, es medio complicada la lectura. No se si no metería las tasas de desocupación por nivel educativo (aunque despues usemos calificación)</t>
-  </si>
-  <si>
     <t>Presión sobre los distintos segmentos del mercado de trabajo</t>
   </si>
   <si>
@@ -168,18 +163,9 @@
     <t>Shopkeepers</t>
   </si>
   <si>
-    <t>ISCO.Digit 1.</t>
-  </si>
-  <si>
     <t>SOC: Descripción</t>
   </si>
   <si>
-    <t>Soc: Código</t>
-  </si>
-  <si>
-    <t>ISCO: Código</t>
-  </si>
-  <si>
     <t>ISCO: Descripción</t>
   </si>
   <si>
@@ -189,9 +175,6 @@
     <t>Probabilidad</t>
   </si>
   <si>
-    <t>"1/7"</t>
-  </si>
-  <si>
     <t>Cruces Educación Calificación</t>
   </si>
   <si>
@@ -205,16 +188,45 @@
   </si>
   <si>
     <t>ISCO: Códigos</t>
+  </si>
+  <si>
+    <t>total.asal</t>
+  </si>
+  <si>
+    <t>Tamaño</t>
+  </si>
+  <si>
+    <t>empleo temporal</t>
+  </si>
+  <si>
+    <t>sin descuento jubilatiorio</t>
+  </si>
+  <si>
+    <t>part time involuntario</t>
+  </si>
+  <si>
+    <t>1 o más expresiones</t>
+  </si>
+  <si>
+    <t>2 o más expresiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicadores de precariedad laboral de la población asalariada según perfiles. Argentina Año 2018 </t>
+  </si>
+  <si>
+    <t>3 expresiones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,14 +278,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,18 +294,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -726,13 +726,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -835,10 +872,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -860,7 +893,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="4" fillId="4" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="4" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -876,6 +909,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="12" fontId="4" fillId="2" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,6 +962,51 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -943,6 +1025,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>394443</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>53995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2695755"/>
+          <a:ext cx="9085556" cy="6200315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -989,24 +1114,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>50744</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>60893</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>64697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>97278</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177396</xdr:rowOff>
+      <xdr:colOff>55890</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>36408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1019,8 +1144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="50744" y="791601"/>
-          <a:ext cx="8419230" cy="4318075"/>
+          <a:off x="0" y="409755"/>
+          <a:ext cx="8358815" cy="5665143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1032,7 +1157,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1084,7 +1209,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1165,7 +1290,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1208,7 +1333,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1289,7 +1414,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1619,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E4"/>
+      <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1759,7 @@
     <col min="10" max="10" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="53" t="s">
         <v>0</v>
@@ -1642,7 +1767,7 @@
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -1654,29 +1779,8 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>16</v>
       </c>
@@ -1692,29 +1796,8 @@
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="38">
-        <v>1112</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="38">
-        <v>1</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1728,29 +1811,8 @@
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="38">
-        <v>1114</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="38">
-        <v>1</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
       <c r="B5" s="6" t="s">
         <v>12</v>
@@ -1763,119 +1825,6 @@
       </c>
       <c r="E5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="38">
-        <v>1120</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="38">
-        <v>1</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G6" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="38">
-        <v>1343</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="38">
-        <v>1</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G7" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="38">
-        <v>1346</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="38">
-        <v>1</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G8" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="38">
-        <v>1420</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="38">
-        <v>1</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G9" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="38">
-        <v>5221</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="38">
-        <v>5</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1837,837 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25"/>
+      <c r="C2" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="I2" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+    </row>
+    <row r="3" spans="1:12" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="10">
+        <f>E4+D4+C4</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="16">
+        <v>3.309244460184263E-2</v>
+      </c>
+      <c r="J4" s="17">
+        <v>7.8056258889451932E-2</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1.7466882593516225E-2</v>
+      </c>
+      <c r="L4" s="10">
+        <f>K4+J4+I4</f>
+        <v>0.12861558608481077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
+      <c r="B5" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" ref="F5:F6" si="0">E5+D5+C5</f>
+        <v>0.42</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="19">
+        <v>4.0386184833768608E-2</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0.3580801249050331</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0.1894891980412188</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" ref="L5:L6" si="1">K5+J5+I5</f>
+        <v>0.58795550778002059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68"/>
+      <c r="B6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.18</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="22">
+        <v>4.5489658927627156E-3</v>
+      </c>
+      <c r="J6" s="23">
+        <v>4.8062142245866579E-2</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0.23081779799653931</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="1"/>
+        <v>0.28342890613516863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="26">
+        <f>C6+C5+C4</f>
+        <v>0.16</v>
+      </c>
+      <c r="D7" s="26">
+        <f t="shared" ref="D7:E7" si="2">D6+D5+D4</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E7" s="29">
+        <f t="shared" si="2"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="F7" s="33">
+        <f>100%</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="26">
+        <f>I6+I5+I4</f>
+        <v>7.8027595328373944E-2</v>
+      </c>
+      <c r="J7" s="26">
+        <f t="shared" ref="J7" si="3">J6+J5+J4</f>
+        <v>0.48419852604035163</v>
+      </c>
+      <c r="K7" s="29">
+        <f t="shared" ref="K7" si="4">K6+K5+K4</f>
+        <v>0.43777387863127437</v>
+      </c>
+      <c r="L7" s="33">
+        <f>100%</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+    </row>
+    <row r="10" spans="1:12" ht="24.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="10">
+        <f>E11+D11+C11</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" ref="F12:F13" si="5">E12+D12+C12</f>
+        <v>0.54999999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="68"/>
+      <c r="B13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0.06</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="5"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="26">
+        <f>C13+C12+C11</f>
+        <v>0.12</v>
+      </c>
+      <c r="D14" s="27">
+        <f t="shared" ref="D14:E14" si="6">D13+D12+D11</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="E14" s="28">
+        <f t="shared" si="6"/>
+        <v>0.48</v>
+      </c>
+      <c r="F14" s="33">
+        <f>100%</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="41">
+        <v>1112</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="42">
+        <v>1</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="43">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="61"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="44">
+        <v>1114</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="39">
+        <v>1</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="45">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="46">
+        <v>1120</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="38">
+        <v>1</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="47">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="44">
+        <v>1343</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="39">
+        <v>1</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="45">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="61"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="46">
+        <v>1346</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="38">
+        <v>1</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="47">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="44">
+        <v>1420</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="39">
+        <v>1</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="45">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="25.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="62"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="48">
+        <v>5221</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="49">
+        <v>5</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="50">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="40.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="51">
+        <v>730349.5</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="74">
+        <v>0.75504374913184102</v>
+      </c>
+      <c r="E3" s="74">
+        <v>0.29533756218450802</v>
+      </c>
+      <c r="F3" s="74">
+        <v>0.21771285784686001</v>
+      </c>
+      <c r="G3" s="74">
+        <v>0.77387252314399801</v>
+      </c>
+      <c r="H3" s="74">
+        <v>0.375586934222154</v>
+      </c>
+      <c r="I3" s="75">
+        <v>0.11105149346922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="51">
+        <v>1297898.25</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="78">
+        <v>0.56707804769293002</v>
+      </c>
+      <c r="E4" s="78">
+        <v>0.151376837869584</v>
+      </c>
+      <c r="F4" s="78">
+        <v>0.10698290134407</v>
+      </c>
+      <c r="G4" s="78">
+        <v>0.58177451746054898</v>
+      </c>
+      <c r="H4" s="78">
+        <v>0.19859912909820801</v>
+      </c>
+      <c r="I4" s="79">
+        <v>3.8030008558363297E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="51">
+        <v>278649.25</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="74">
+        <v>0.42163333422552601</v>
+      </c>
+      <c r="E5" s="74">
+        <v>9.4580894979192906E-2</v>
+      </c>
+      <c r="F5" s="74">
+        <v>0.129046028399153</v>
+      </c>
+      <c r="G5" s="74">
+        <v>0.45730777185368199</v>
+      </c>
+      <c r="H5" s="74">
+        <v>0.14745972345102401</v>
+      </c>
+      <c r="I5" s="75">
+        <v>2.6121420671963599E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="51">
+        <v>192849.5</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="78">
+        <v>0.30000616247934903</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0.138556478633036</v>
+      </c>
+      <c r="F6" s="78">
+        <v>0.111049162975618</v>
+      </c>
+      <c r="G6" s="78">
+        <v>0.33791294872406902</v>
+      </c>
+      <c r="H6" s="78">
+        <v>0.157411630430284</v>
+      </c>
+      <c r="I6" s="79">
+        <v>2.9107614909729601E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="51">
+        <v>601685</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="74">
+        <v>0.21352878230605299</v>
+      </c>
+      <c r="E7" s="74">
+        <v>9.0897139145806397E-2</v>
+      </c>
+      <c r="F7" s="74">
+        <v>5.5039906286164002E-2</v>
+      </c>
+      <c r="G7" s="74">
+        <v>0.239470768030947</v>
+      </c>
+      <c r="H7" s="74">
+        <v>8.0864174018039206E-2</v>
+      </c>
+      <c r="I7" s="75">
+        <v>1.32487862898E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
+        <v>417916.25</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="78">
+        <v>0.145453315867626</v>
+      </c>
+      <c r="E8" s="78">
+        <v>6.6280702602122293E-2</v>
+      </c>
+      <c r="F8" s="78">
+        <v>0.118852249165895</v>
+      </c>
+      <c r="G8" s="78">
+        <v>0.23343526397599701</v>
+      </c>
+      <c r="H8" s="78">
+        <v>6.1356025378981202E-2</v>
+      </c>
+      <c r="I8" s="79">
+        <v>1.0773700588350799E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="51">
+        <v>268625.75</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="74">
+        <v>0.15951193924480001</v>
+      </c>
+      <c r="E9" s="74">
+        <v>8.6551704775526497E-2</v>
+      </c>
+      <c r="F9" s="74">
+        <v>6.7649872331652594E-2</v>
+      </c>
+      <c r="G9" s="74">
+        <v>0.20142303227590699</v>
+      </c>
+      <c r="H9" s="74">
+        <v>6.9017515184958203E-2</v>
+      </c>
+      <c r="I9" s="75">
+        <v>1.1342016745342199E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="51">
+        <v>1068751.25</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="78">
+        <v>8.5939583522476604E-2</v>
+      </c>
+      <c r="E10" s="78">
+        <v>5.0349609649651898E-2</v>
+      </c>
+      <c r="F10" s="78">
+        <v>4.1735634058937397E-2</v>
+      </c>
+      <c r="G10" s="78">
+        <v>0.11491310048817099</v>
+      </c>
+      <c r="H10" s="78">
+        <v>3.4029217751482398E-2</v>
+      </c>
+      <c r="I10" s="79">
+        <v>4.5956386994730298E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51">
+        <v>960231.5</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="82">
+        <v>9.2046909227354506E-2</v>
+      </c>
+      <c r="E11" s="82">
+        <v>6.1639513071353701E-2</v>
+      </c>
+      <c r="F11" s="82">
+        <v>7.7512343516391899E-2</v>
+      </c>
+      <c r="G11" s="82">
+        <v>0.15488848078331</v>
+      </c>
+      <c r="H11" s="82">
+        <v>4.1543934256149398E-2</v>
+      </c>
+      <c r="I11" s="83">
+        <v>5.5274673254028803E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1898,37 +2677,6 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1939,6 +2687,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K1"/>
   <sheetViews>
@@ -1959,7 +2728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1974,7 +2743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -1986,20 +2755,20 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2008,7 +2777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2029,7 +2798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2048,512 +2817,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25"/>
-      <c r="C2" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="I2" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
-    </row>
-    <row r="3" spans="1:12" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0.24</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="F4" s="10">
-        <f>E4+D4+C4</f>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="16">
-        <v>3.309244460184263E-2</v>
-      </c>
-      <c r="J4" s="17">
-        <v>7.8056258889451932E-2</v>
-      </c>
-      <c r="K4" s="18">
-        <v>1.7466882593516225E-2</v>
-      </c>
-      <c r="L4" s="10">
-        <f>K4+J4+I4</f>
-        <v>0.12861558608481077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="11">
-        <f t="shared" ref="F5:F6" si="0">E5+D5+C5</f>
-        <v>0.42</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="19">
-        <v>4.0386184833768608E-2</v>
-      </c>
-      <c r="J5" s="20">
-        <v>0.3580801249050331</v>
-      </c>
-      <c r="K5" s="21">
-        <v>0.1894891980412188</v>
-      </c>
-      <c r="L5" s="11">
-        <f t="shared" ref="L5:L6" si="1">K5+J5+I5</f>
-        <v>0.58795550778002059</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0.06</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0.18</v>
-      </c>
-      <c r="F6" s="12">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="22">
-        <v>4.5489658927627156E-3</v>
-      </c>
-      <c r="J6" s="23">
-        <v>4.8062142245866579E-2</v>
-      </c>
-      <c r="K6" s="24">
-        <v>0.23081779799653931</v>
-      </c>
-      <c r="L6" s="12">
-        <f t="shared" si="1"/>
-        <v>0.28342890613516863</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="26">
-        <f>C6+C5+C4</f>
-        <v>0.16</v>
-      </c>
-      <c r="D7" s="26">
-        <f t="shared" ref="D7:E7" si="2">D6+D5+D4</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E7" s="29">
-        <f t="shared" si="2"/>
-        <v>0.31000000000000005</v>
-      </c>
-      <c r="F7" s="33">
-        <f>100%</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="26">
-        <f>I6+I5+I4</f>
-        <v>7.8027595328373944E-2</v>
-      </c>
-      <c r="J7" s="26">
-        <f t="shared" ref="J7" si="3">J6+J5+J4</f>
-        <v>0.48419852604035163</v>
-      </c>
-      <c r="K7" s="29">
-        <f t="shared" ref="K7" si="4">K6+K5+K4</f>
-        <v>0.43777387863127437</v>
-      </c>
-      <c r="L7" s="33">
-        <f>100%</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-    </row>
-    <row r="10" spans="1:12" ht="24.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="F11" s="10">
-        <f>E11+D11+C11</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.08</v>
-      </c>
-      <c r="D12" s="20">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.18</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" ref="F12:F13" si="5">E12+D12+C12</f>
-        <v>0.54999999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0.06</v>
-      </c>
-      <c r="E13" s="24">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="5"/>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="26">
-        <f>C13+C12+C11</f>
-        <v>0.12</v>
-      </c>
-      <c r="D14" s="27">
-        <f t="shared" ref="D14:E14" si="6">D13+D12+D11</f>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="E14" s="28">
-        <f t="shared" si="6"/>
-        <v>0.48</v>
-      </c>
-      <c r="F14" s="33">
-        <f>100%</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="27.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="43">
-        <v>1112</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="44">
-        <v>1</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="45">
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="46">
-        <v>1114</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="41">
-        <v>1</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="47">
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="48">
-        <v>1120</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="40">
-        <v>1</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="49">
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="46">
-        <v>1343</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="41">
-        <v>1</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="47">
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="48">
-        <v>1346</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="40">
-        <v>1</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="49">
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="46">
-        <v>1420</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="41">
-        <v>1</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="47">
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="25.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="50">
-        <v>5221</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="51">
-        <v>5</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="52">
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C9:F9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Resultados/Cuadros y Graficos.xlsx
+++ b/Resultados/Cuadros y Graficos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema 1" sheetId="1" r:id="rId1"/>
@@ -915,6 +915,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,51 +1007,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1297,17 +1297,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>30446</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>58434</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>45462</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>692172</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="3 Imagen"/>
+        <xdr:cNvPr id="5" name="4 Imagen"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1320,8 +1320,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="578477"/>
-          <a:ext cx="10714594" cy="5495327"/>
+          <a:off x="0" y="548031"/>
+          <a:ext cx="9826024" cy="5038102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1761,11 +1761,11 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1781,7 +1781,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="70" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1798,7 +1798,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1813,7 +1813,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1841,7 +1841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1860,18 +1860,18 @@
     </row>
     <row r="2" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="25"/>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="I2" s="63" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="I2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:12" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
@@ -1907,7 +1907,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="81" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="30" t="s">
@@ -1944,7 +1944,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="31" t="s">
         <v>8</v>
       </c>
@@ -1979,7 +1979,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
@@ -2056,12 +2056,12 @@
     </row>
     <row r="8" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
     </row>
     <row r="10" spans="1:12" ht="24.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
@@ -2082,7 +2082,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="81" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -2103,7 +2103,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
@@ -2122,7 +2122,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="32" t="s">
         <v>12</v>
       </c>
@@ -2195,10 +2195,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="72" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="41">
@@ -2218,8 +2218,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="44">
         <v>1114</v>
       </c>
@@ -2237,8 +2237,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="46">
         <v>1120</v>
       </c>
@@ -2256,8 +2256,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="44">
         <v>1343</v>
       </c>
@@ -2275,8 +2275,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="46">
         <v>1346</v>
       </c>
@@ -2294,8 +2294,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="44">
         <v>1420</v>
       </c>
@@ -2313,8 +2313,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="25.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="48">
         <v>5221</v>
       </c>
@@ -2374,28 +2374,28 @@
       <c r="A2" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="55" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2403,28 +2403,28 @@
       <c r="A3" s="51">
         <v>730349.5</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="58">
         <v>0.75504374913184102</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="58">
         <v>0.29533756218450802</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="58">
         <v>0.21771285784686001</v>
       </c>
-      <c r="G3" s="74">
+      <c r="G3" s="58">
         <v>0.77387252314399801</v>
       </c>
-      <c r="H3" s="74">
+      <c r="H3" s="58">
         <v>0.375586934222154</v>
       </c>
-      <c r="I3" s="75">
+      <c r="I3" s="59">
         <v>0.11105149346922</v>
       </c>
     </row>
@@ -2432,28 +2432,28 @@
       <c r="A4" s="51">
         <v>1297898.25</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="78">
+      <c r="D4" s="62">
         <v>0.56707804769293002</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="62">
         <v>0.151376837869584</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="62">
         <v>0.10698290134407</v>
       </c>
-      <c r="G4" s="78">
+      <c r="G4" s="62">
         <v>0.58177451746054898</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="62">
         <v>0.19859912909820801</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="63">
         <v>3.8030008558363297E-2</v>
       </c>
     </row>
@@ -2461,28 +2461,28 @@
       <c r="A5" s="51">
         <v>278649.25</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="58">
         <v>0.42163333422552601</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="58">
         <v>9.4580894979192906E-2</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="58">
         <v>0.129046028399153</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="58">
         <v>0.45730777185368199</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="58">
         <v>0.14745972345102401</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="59">
         <v>2.6121420671963599E-2</v>
       </c>
     </row>
@@ -2490,28 +2490,28 @@
       <c r="A6" s="51">
         <v>192849.5</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="62">
         <v>0.30000616247934903</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="62">
         <v>0.138556478633036</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="62">
         <v>0.111049162975618</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="62">
         <v>0.33791294872406902</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="62">
         <v>0.157411630430284</v>
       </c>
-      <c r="I6" s="79">
+      <c r="I6" s="63">
         <v>2.9107614909729601E-2</v>
       </c>
     </row>
@@ -2519,28 +2519,28 @@
       <c r="A7" s="51">
         <v>601685</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="58">
         <v>0.21352878230605299</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="58">
         <v>9.0897139145806397E-2</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="58">
         <v>5.5039906286164002E-2</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="58">
         <v>0.239470768030947</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="58">
         <v>8.0864174018039206E-2</v>
       </c>
-      <c r="I7" s="75">
+      <c r="I7" s="59">
         <v>1.32487862898E-2</v>
       </c>
     </row>
@@ -2548,28 +2548,28 @@
       <c r="A8" s="51">
         <v>417916.25</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="62">
         <v>0.145453315867626</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="62">
         <v>6.6280702602122293E-2</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="62">
         <v>0.118852249165895</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="62">
         <v>0.23343526397599701</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="62">
         <v>6.1356025378981202E-2</v>
       </c>
-      <c r="I8" s="79">
+      <c r="I8" s="63">
         <v>1.0773700588350799E-2</v>
       </c>
     </row>
@@ -2577,28 +2577,28 @@
       <c r="A9" s="51">
         <v>268625.75</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="58">
         <v>0.15951193924480001</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="58">
         <v>8.6551704775526497E-2</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="58">
         <v>6.7649872331652594E-2</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="58">
         <v>0.20142303227590699</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="58">
         <v>6.9017515184958203E-2</v>
       </c>
-      <c r="I9" s="75">
+      <c r="I9" s="59">
         <v>1.1342016745342199E-2</v>
       </c>
     </row>
@@ -2606,28 +2606,28 @@
       <c r="A10" s="51">
         <v>1068751.25</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="62">
         <v>8.5939583522476604E-2</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="62">
         <v>5.0349609649651898E-2</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="62">
         <v>4.1735634058937397E-2</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="62">
         <v>0.11491310048817099</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="62">
         <v>3.4029217751482398E-2</v>
       </c>
-      <c r="I10" s="79">
+      <c r="I10" s="63">
         <v>4.5956386994730298E-3</v>
       </c>
     </row>
@@ -2635,28 +2635,28 @@
       <c r="A11" s="51">
         <v>960231.5</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="66">
         <v>9.2046909227354506E-2</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="66">
         <v>6.1639513071353701E-2</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F11" s="66">
         <v>7.7512343516391899E-2</v>
       </c>
-      <c r="G11" s="82">
+      <c r="G11" s="66">
         <v>0.15488848078331</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="66">
         <v>4.1543934256149398E-2</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="67">
         <v>5.5274673254028803E-3</v>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2781,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X33" sqref="S32:X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/Resultados/Cuadros y Graficos.xlsx
+++ b/Resultados/Cuadros y Graficos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>Tamaño del establecimiento</t>
   </si>
@@ -215,6 +215,27 @@
   </si>
   <si>
     <t>3 expresiones</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Paises de Europa</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Part time involuntario</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Empleo de duración determinada</t>
+  </si>
+  <si>
+    <t>Ausencia de descuento jubilatorio</t>
   </si>
 </sst>
 </file>
@@ -769,7 +790,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1007,6 +1028,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1841,7 +1880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1851,6 +1892,8 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
@@ -2063,7 +2106,7 @@
       <c r="E9" s="79"/>
       <c r="F9" s="80"/>
     </row>
-    <row r="10" spans="1:12" ht="24.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="49.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="34" t="s">
         <v>19</v>
@@ -2080,6 +2123,16 @@
       <c r="F10" s="15" t="s">
         <v>25</v>
       </c>
+      <c r="I10" s="84"/>
+      <c r="J10" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="89" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="81" t="s">
@@ -2100,6 +2153,18 @@
       <c r="F11" s="10">
         <f>E11+D11+C11</f>
         <v>0.09</v>
+      </c>
+      <c r="I11" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="86" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2120,6 +2185,16 @@
         <f t="shared" ref="F12:F13" si="5">E12+D12+C12</f>
         <v>0.54999999999999993</v>
       </c>
+      <c r="I12" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="87"/>
     </row>
     <row r="13" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
@@ -2139,6 +2214,14 @@
         <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
+      <c r="I13" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="35" t="s">
@@ -2781,7 +2864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X33" sqref="S32:X33"/>
     </sheetView>
   </sheetViews>
